--- a/Mapping - Lead Source.xlsx
+++ b/Mapping - Lead Source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffburtenshaw/Documents/Book/sample data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5B69A8-27ED-544B-B82A-F6B271077346}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4A65D64-057F-9949-B3BD-65FECD3AADC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{A98F8D21-B016-E54A-8491-E102E1ED244A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Current</t>
   </si>
@@ -78,23 +78,85 @@
     <t>Stategic Accounts Maketing</t>
   </si>
   <si>
-    <t>Strategic Accounts Maketing</t>
-  </si>
-  <si>
     <t>Patneing</t>
   </si>
   <si>
     <t>Lead Source</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Content Syndication</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>enewal</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Inc. 5</t>
+  </si>
+  <si>
+    <t>InsideView</t>
+  </si>
+  <si>
+    <t>Jigsaw</t>
+  </si>
+  <si>
+    <t>LinkedIn - Outbound</t>
+  </si>
+  <si>
+    <t>Online Events</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>Physical Event</t>
+  </si>
+  <si>
+    <t>Physical Events</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Inc. 6</t>
+  </si>
+  <si>
+    <t>Strategic Accounts Marketing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,8 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54BC8A57-A028-6046-831B-F7E9C87F1B9C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,11 +512,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -509,18 +572,139 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>